--- a/team26_backlog.xlsx
+++ b/team26_backlog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Syka\Google Drive\Documents\BCIT\Projects\Excel Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Syka\COMP1930\GreenPoints\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F17682B-D0A8-4D42-8DB4-A45BFFC80C35}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{755C3F5A-B88E-4FC0-AC74-BA13A9EA4594}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13860" yWindow="270" windowWidth="13035" windowHeight="15300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>

--- a/team26_backlog.xlsx
+++ b/team26_backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Syka\COMP1930\GreenPoints\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{755C3F5A-B88E-4FC0-AC74-BA13A9EA4594}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55FF921C-40AD-4DA7-9F7E-FB929935AA64}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13860" yWindow="270" windowWidth="13035" windowHeight="15300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="68">
   <si>
     <t>Backlog</t>
   </si>
@@ -78,15 +78,6 @@
   </si>
   <si>
     <t>Create input css</t>
-  </si>
-  <si>
-    <t>Create locator code html</t>
-  </si>
-  <si>
-    <t>Create locator css</t>
-  </si>
-  <si>
-    <t>Review of current project progress</t>
   </si>
   <si>
     <t>Create rewards html</t>
@@ -206,6 +197,50 @@
   <si>
     <t>1.5  x 3</t>
   </si>
+  <si>
+    <t>Create Input Database</t>
+  </si>
+  <si>
+    <t>Create User Database</t>
+  </si>
+  <si>
+    <t>Add in an input text field for the Input Code Page</t>
+  </si>
+  <si>
+    <t>Replace Code Div with a working textfield.</t>
+  </si>
+  <si>
+    <t>Connect that textfield to databases functionality.</t>
+  </si>
+  <si>
+    <t>Each user should be each member for indiviudal testing</t>
+  </si>
+  <si>
+    <t>Develop Each Member's Own Github Branch</t>
+  </si>
+  <si>
+    <t>Color Coordinate All the Pages
+Unify CSS Into a central theme</t>
+  </si>
+  <si>
+    <t>Write HTML:
+-Input the code
+-Compare the code to the input database
+-If it's valid, modify the "Point" data for the User database.
+-Give confirmation message at the input page.</t>
+  </si>
+  <si>
+    <t>Add input data for three codes:
+-Code Name
+-Code Points</t>
+  </si>
+  <si>
+    <t>Add three users data:
+-Picture
+-Name
+-Points
+-Join Date</t>
+  </si>
 </sst>
 </file>
 
@@ -247,7 +282,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -285,6 +320,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -28634,16 +28678,16 @@
     </row>
     <row r="2" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C2" s="10">
         <v>1</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -28672,13 +28716,13 @@
     <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C3" s="10">
         <v>1</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -28707,13 +28751,13 @@
     <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -28748,7 +28792,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -28782,7 +28826,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -28810,13 +28854,13 @@
     </row>
     <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -28845,13 +28889,13 @@
     <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -28885,7 +28929,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -28920,7 +28964,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -28949,13 +28993,13 @@
     <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C11" s="11">
         <v>1</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -28984,13 +29028,13 @@
     <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C12" s="11">
         <v>1</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -29019,13 +29063,13 @@
     <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C13" s="11">
         <v>1</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -29054,13 +29098,13 @@
     <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C14" s="11">
         <v>1</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -29089,13 +29133,13 @@
     <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C15" s="11">
         <v>1</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -29177,7 +29221,7 @@
     <row r="18" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -29208,7 +29252,7 @@
     <row r="19" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -29239,7 +29283,7 @@
     <row r="20" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
       <c r="B20" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -57699,7 +57743,7 @@
   </sheetPr>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -57735,13 +57779,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -57749,13 +57793,13 @@
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C3" s="4">
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -57763,13 +57807,13 @@
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C4" s="11">
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -57777,39 +57821,39 @@
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C5" s="11">
         <v>1</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C6" s="11">
         <v>1</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C7" s="11">
         <v>1</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -57819,79 +57863,79 @@
         <v>13</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C8" s="4">
         <v>1</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C9" s="11">
         <v>1</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C10" s="11">
         <v>1</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C12" s="11">
         <v>1</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C13" s="11">
         <v>1</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C14" s="11">
         <v>1</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -57909,14 +57953,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.7109375" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" customWidth="1"/>
+    <col min="1" max="1" width="66" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -57945,56 +57991,113 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="14">
         <v>1</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
-      <c r="C3" s="4">
-        <v>2</v>
-      </c>
+      <c r="C3" s="14"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="7" t="s">
-        <v>20</v>
+    <row r="4" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>62</v>
       </c>
-      <c r="C4" s="8">
-        <v>4</v>
-      </c>
+      <c r="C4" s="14"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>13</v>
+      <c r="B5" s="7" t="s">
+        <v>57</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4">
+      <c r="C5" s="15">
         <v>1</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="15"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="16">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="16"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="B10" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="10">
+        <v>0.5</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -58040,7 +58143,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
@@ -58052,7 +58155,7 @@
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C3" s="8">
         <v>1</v>
@@ -58064,7 +58167,7 @@
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C4" s="4">
         <v>2</v>
@@ -58076,7 +58179,7 @@
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C5" s="4">
         <v>2</v>
@@ -58099,7 +58202,7 @@
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C7" s="8">
         <v>4</v>
